--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed4/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.693999999999999</v>
+        <v>-7.965999999999998</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.106</v>
+        <v>-12.666</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.004</v>
+        <v>16.182</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.762</v>
+        <v>-21.782</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>15.97</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.97</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.236</v>
+        <v>-22.114</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>17.01</v>
+        <v>16.856</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.736</v>
+        <v>-12.89</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.632000000000001</v>
+        <v>-8.306000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.74</v>
+        <v>-21.904</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.672</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.078</v>
+        <v>-21.99</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.566</v>
+        <v>-12.404</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.046</v>
+        <v>-20.347</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.888</v>
+        <v>16.254</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.814</v>
+        <v>16.817</v>
       </c>
     </row>
     <row r="25">
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.67</v>
+        <v>-21.522</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.598</v>
+        <v>-12.715</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.796</v>
+        <v>-21.78</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.56</v>
+        <v>-13.038</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.597999999999999</v>
+        <v>-8.122</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.364</v>
+        <v>-21.265</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.358</v>
+        <v>-12.119</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>17.22</v>
+        <v>17.274</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.822</v>
+        <v>-7.514</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.338</v>
+        <v>-19.955</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.792</v>
+        <v>-7.653000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.656</v>
+        <v>-20.617</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.198</v>
+        <v>-12.654</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.756</v>
+        <v>-13.321</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.524000000000001</v>
+        <v>-8.090999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.222</v>
+        <v>16.433</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.114000000000001</v>
+        <v>-7.553</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.103999999999999</v>
+        <v>-7.619</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.452</v>
+        <v>-21.55</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-8.388</v>
+        <v>-7.725999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.048</v>
+        <v>-11.746</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.074000000000001</v>
+        <v>-7.45</v>
       </c>
       <c r="E47" t="n">
-        <v>16.922</v>
+        <v>17.053</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>16.99</v>
+        <v>17.016</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.402</v>
+        <v>-12.317</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.65</v>
+        <v>-7.590000000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,13 +1318,13 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.546</v>
+        <v>-11.693</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.088</v>
+        <v>17.041</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.622</v>
+        <v>-8.163</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.554</v>
+        <v>-21.8</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-12.376</v>
+        <v>-12.879</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1392,12 +1392,12 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.944</v>
+        <v>16.974</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.942</v>
+        <v>-22.139</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.309999999999999</v>
+        <v>-8.062999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.875999999999999</v>
+        <v>-8.026999999999999</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.198</v>
+        <v>-7.597</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.178</v>
+        <v>-7.096000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.668</v>
+        <v>-21.75</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.424</v>
+        <v>-11.78</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.662</v>
+        <v>-13.392</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.673999999999999</v>
+        <v>-7.959999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.566</v>
+        <v>-20.356</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.624</v>
+        <v>-13.244</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.854</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1811,10 +1811,10 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.662</v>
+        <v>-13.387</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.586</v>
+        <v>-7.964999999999999</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.174</v>
+        <v>-22.141</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.594</v>
+        <v>-21.758</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.352</v>
+        <v>-12.557</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.646</v>
+        <v>16.734</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-8.242000000000001</v>
+        <v>-8.050999999999998</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.56</v>
+        <v>-21.46</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.298</v>
+        <v>-11.515</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.35</v>
+        <v>-7.81</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-22.238</v>
+        <v>-22.053</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.762</v>
+        <v>-8.103999999999999</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2134,13 +2134,13 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.178</v>
+        <v>-12.149</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.422</v>
+        <v>16.853</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.158</v>
+        <v>16.889</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.752</v>
+        <v>-13.166</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
